--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_7_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_7_square_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[53.570349336675534, 71.6167019274056]</t>
+          <t>[53.39136156740169, 71.79568969667945]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[42.584161038491075, 54.956736936996194]</t>
+          <t>[42.58496710922837, 54.955930866258896]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,14 +685,14 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[50.81672186283197, 74.71141566587731]</t>
+          <t>[50.68759602986137, 74.84054149884791]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>8.615330671091215e-14</v>
+        <v>1.216804434989172e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>8.615330671091215e-14</v>
+        <v>1.216804434989172e-13</v>
       </c>
       <c r="P3" t="n">
         <v>1.201289683354656</v>
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[43.662633967893136, 57.035833867780276]</t>
+          <t>[43.65908750583876, 57.03938032983465]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,14 +771,14 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[51.01294542381618, 77.65830503914339]</t>
+          <t>[51.588456789048955, 77.0827936739106]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.231903468124074e-12</v>
+        <v>3.104183576851938e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.231903468124074e-12</v>
+        <v>3.104183576851938e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0.7987632973091161</v>
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[44.790701079065315, 58.28234720685266]</t>
+          <t>[44.796859958799374, 58.276188327118604]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,35 +857,35 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[53.36843408790062, 77.62187909932473]</t>
+          <t>[53.461447658397226, 77.52886552882813]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.486100297322992e-14</v>
+        <v>2.708944180085382e-14</v>
       </c>
       <c r="O5" t="n">
-        <v>3.486100297322992e-14</v>
+        <v>2.708944180085382e-14</v>
       </c>
       <c r="P5" t="n">
         <v>0.3710790121357315</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.16981581911296217, 0.5723422051585008]</t>
+          <t>[0.1823947686768861, 0.5597632555945768]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.000561620576025712</v>
+        <v>0.0002632491671181736</v>
       </c>
       <c r="S5" t="n">
-        <v>0.000561620576025712</v>
+        <v>0.0002632491671181736</v>
       </c>
       <c r="T5" t="n">
         <v>50.11685261200564</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[43.439556520312166, 56.79414870369911]</t>
+          <t>[43.438322371081114, 56.79538285293016]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -898,10 +898,10 @@
         <v>24.07867867867921</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.25897897897949</v>
+        <v>23.31021021021073</v>
       </c>
       <c r="Z5" t="n">
-        <v>24.89837837837892</v>
+        <v>24.84714714714769</v>
       </c>
     </row>
     <row r="6">
@@ -943,14 +943,14 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[55.002196270955, 75.49706743895645]</t>
+          <t>[55.043738528412234, 75.45552518149921]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="P6" t="n">
         <v>0.01886842434588498</v>
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[43.313975504245406, 56.702658646718234]</t>
+          <t>[43.30722592905357, 56.70940822191007]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,14 +1029,14 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[51.85198299159397, 75.80895094101164]</t>
+          <t>[51.68065666652505, 75.98027726608056]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>5.417888360170764e-14</v>
+        <v>8.593126210598712e-14</v>
       </c>
       <c r="O7" t="n">
-        <v>5.417888360170764e-14</v>
+        <v>8.593126210598712e-14</v>
       </c>
       <c r="P7" t="n">
         <v>-0.3522105877898465</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[42.51654720289926, 56.02727475817419]</t>
+          <t>[42.52421094244815, 56.0196110186253]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,14 +1115,14 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[50.26018305545754, 74.76625454182948]</t>
+          <t>[50.24206945724285, 74.78436814004418]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>2.309263891220326e-13</v>
       </c>
       <c r="O8" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>2.309263891220326e-13</v>
       </c>
       <c r="P8" t="n">
         <v>-0.9811580659860013</v>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[42.78340267676907, 55.61565563748937]</t>
+          <t>[42.782203231339906, 55.61685508291853]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,14 +1201,14 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[52.795183659974384, 73.51931272574551]</t>
+          <t>[53.129106754591604, 73.18538963112829]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O9" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="P9" t="n">
         <v>-1.25789495639231</v>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[42.269392947239766, 54.0676769617769]</t>
+          <t>[42.26247941425813, 54.07459049475853]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[53.523537089123366, 71.87580410903838]</t>
+          <t>[53.50451482907803, 71.89482636908372]</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[45.108410465413286, 57.50552558863308]</t>
+          <t>[45.10268176544007, 57.511254288606295]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1373,14 +1373,14 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[50.60510041580878, 75.05243403385616]</t>
+          <t>[51.346574514509115, 74.31095993515582]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.738609256562995e-13</v>
+        <v>2.264854970235319e-14</v>
       </c>
       <c r="O11" t="n">
-        <v>1.738609256562995e-13</v>
+        <v>2.264854970235319e-14</v>
       </c>
       <c r="P11" t="n">
         <v>-1.94973718240808</v>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[43.20341752018024, 56.540367942170505]</t>
+          <t>[43.20491024349958, 56.53887521885116]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1459,14 +1459,14 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[51.18360749879883, 77.31023513609551]</t>
+          <t>[51.53880904866267, 76.95503358623168]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>6.994405055138486e-13</v>
+        <v>2.942091015256665e-13</v>
       </c>
       <c r="O12" t="n">
-        <v>6.994405055138486e-13</v>
+        <v>2.942091015256665e-13</v>
       </c>
       <c r="P12" t="n">
         <v>-2.352263568453619</v>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[42.06515785929526, 55.51685655561378]</t>
+          <t>[42.07585227387733, 55.50616214103171]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1545,14 +1545,14 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[53.25781801457839, 77.6434935211339]</t>
+          <t>[53.52520576219777, 77.37610577351452]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>2.042810365310288e-14</v>
       </c>
       <c r="O13" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>2.042810365310288e-14</v>
       </c>
       <c r="P13" t="n">
         <v>-2.717053105807389</v>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[41.56435860508013, 54.85817165331325]</t>
+          <t>[41.55667895965422, 54.86585129873916]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[55.11672382168017, 75.78462540618138]</t>
+          <t>[55.045386459209865, 75.85596276865168]</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[41.56418883952312, 54.85876775930718]</t>
+          <t>[41.55625355381809, 54.86670304501221]</t>
         </is>
       </c>
       <c r="V14" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_7_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_7_square_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[53.39136156740169, 71.79568969667945]</t>
+          <t>[53.48041470216667, 71.70663656191446]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[42.58496710922837, 54.955930866258896]</t>
+          <t>[42.58476525527433, 54.95613272021294]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,14 +685,14 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[50.68759602986137, 74.84054149884791]</t>
+          <t>[50.906570560827575, 74.6215669678817]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.216804434989172e-13</v>
+        <v>6.727951529228449e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>1.216804434989172e-13</v>
+        <v>6.727951529228449e-14</v>
       </c>
       <c r="P3" t="n">
         <v>1.201289683354656</v>
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[43.65908750583876, 57.03938032983465]</t>
+          <t>[43.65940666410785, 57.039061171565564]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,35 +771,35 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[51.588456789048955, 77.0827936739106]</t>
+          <t>[51.388544364652944, 77.28270609830662]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.104183576851938e-13</v>
+        <v>5.067057884389214e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>3.104183576851938e-13</v>
+        <v>5.067057884389214e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0.7987632973091161</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.5975001042863459, 1.0000264903318863]</t>
+          <t>[0.5849211547224238, 1.0126054398958084]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.523294989093984e-10</v>
+        <v>1.718318598520341e-09</v>
       </c>
       <c r="S4" t="n">
-        <v>3.523294989093984e-10</v>
+        <v>1.718318598520341e-09</v>
       </c>
       <c r="T4" t="n">
         <v>51.53652414295899</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[44.796859958799374, 58.276188327118604]</t>
+          <t>[44.79400954443461, 58.27903874148337]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -812,10 +812,10 @@
         <v>22.33681681681731</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.51711711711759</v>
+        <v>21.46588588588636</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.15651651651703</v>
+        <v>23.20774774774826</v>
       </c>
     </row>
     <row r="5">
@@ -857,14 +857,14 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[53.461447658397226, 77.52886552882813]</t>
+          <t>[53.40505146636366, 77.5852617208617]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.708944180085382e-14</v>
+        <v>3.153033389935445e-14</v>
       </c>
       <c r="O5" t="n">
-        <v>2.708944180085382e-14</v>
+        <v>3.153033389935445e-14</v>
       </c>
       <c r="P5" t="n">
         <v>0.3710790121357315</v>
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[43.438322371081114, 56.79538285293016]</t>
+          <t>[43.44176112644289, 56.79194409756838]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,35 +943,35 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[55.043738528412234, 75.45552518149921]</t>
+          <t>[54.98759618663331, 75.51166752327813]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0.01886842434588498</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.14465791998511524, 0.1823947686768852]</t>
+          <t>[-0.13836844520315417, 0.17610529389492413]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.8172837508442115</v>
+        <v>0.8101165300516047</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8172837508442115</v>
+        <v>0.8101165300516047</v>
       </c>
       <c r="T6" t="n">
         <v>50.00831707548182</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[43.30722592905357, 56.70940822191007]</t>
+          <t>[43.307350377639565, 56.709283773324074]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -984,10 +984,10 @@
         <v>25.51315315315371</v>
       </c>
       <c r="Y6" t="n">
-        <v>24.84714714714769</v>
+        <v>24.8727627627633</v>
       </c>
       <c r="Z6" t="n">
-        <v>26.17915915915973</v>
+        <v>26.15354354354412</v>
       </c>
     </row>
     <row r="7">
@@ -1029,14 +1029,14 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[51.68065666652505, 75.98027726608056]</t>
+          <t>[51.96195748736659, 75.69897644523903]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>8.593126210598712e-14</v>
+        <v>3.996802888650564e-14</v>
       </c>
       <c r="O7" t="n">
-        <v>8.593126210598712e-14</v>
+        <v>3.996802888650564e-14</v>
       </c>
       <c r="P7" t="n">
         <v>-0.3522105877898465</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[42.52421094244815, 56.0196110186253]</t>
+          <t>[42.52188313552143, 56.02193882555202]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,14 +1115,14 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[50.24206945724285, 74.78436814004418]</t>
+          <t>[50.352358920758334, 74.6740786765287]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.309263891220326e-13</v>
+        <v>1.731947918415244e-13</v>
       </c>
       <c r="O8" t="n">
-        <v>2.309263891220326e-13</v>
+        <v>1.731947918415244e-13</v>
       </c>
       <c r="P8" t="n">
         <v>-0.9811580659860013</v>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[42.782203231339906, 55.61685508291853]</t>
+          <t>[42.7811366730873, 55.61792164117114]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,21 +1201,21 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[53.129106754591604, 73.18538963112829]</t>
+          <t>[52.68424670635831, 73.63024967936158]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="O9" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="P9" t="n">
         <v>-1.25789495639231</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.4214213007233099, -1.0943686120613094]</t>
+          <t>[-1.4340002502872329, -1.0817896624973864]</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[42.26247941425813, 54.07459049475853]</t>
+          <t>[42.266893248571535, 54.07017666044513]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1242,10 +1242,10 @@
         <v>5.095095095095203</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.432732732732827</v>
+        <v>4.381781781781875</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.75745745745758</v>
+        <v>5.808408408408532</v>
       </c>
     </row>
     <row r="10">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[53.50451482907803, 71.89482636908372]</t>
+          <t>[53.67402425525137, 71.72531694291038]</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[45.10268176544007, 57.511254288606295]</t>
+          <t>[45.10542142215302, 57.50851463189334]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1373,14 +1373,14 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[51.346574514509115, 74.31095993515582]</t>
+          <t>[50.766857936717045, 74.89067651294789]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>2.264854970235319e-14</v>
+        <v>1.13464793116691e-13</v>
       </c>
       <c r="O11" t="n">
-        <v>2.264854970235319e-14</v>
+        <v>1.13464793116691e-13</v>
       </c>
       <c r="P11" t="n">
         <v>-1.94973718240808</v>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[43.20491024349958, 56.53887521885116]</t>
+          <t>[43.20830020244162, 56.53548525990912]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1459,21 +1459,21 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[51.53880904866267, 76.95503358623168]</t>
+          <t>[51.40358881358262, 77.09025382131173]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2.942091015256665e-13</v>
+        <v>4.11004563716233e-13</v>
       </c>
       <c r="O12" t="n">
-        <v>2.942091015256665e-13</v>
+        <v>4.11004563716233e-13</v>
       </c>
       <c r="P12" t="n">
         <v>-2.352263568453619</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.553526761476389, -2.1510003754308484]</t>
+          <t>[-2.566105711040311, -2.1384214258669263]</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[42.07585227387733, 55.50616214103171]</t>
+          <t>[42.068442406666406, 55.51357200824263]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1500,10 +1500,10 @@
         <v>9.527827827828029</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.712612612612794</v>
+        <v>8.661661661661846</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.34304304304326</v>
+        <v>10.39399399399421</v>
       </c>
     </row>
     <row r="13">
@@ -1545,14 +1545,14 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[53.52520576219777, 77.37610577351452]</t>
+          <t>[53.45967699255546, 77.44163454315684]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>2.042810365310288e-14</v>
+        <v>2.464695114667848e-14</v>
       </c>
       <c r="O13" t="n">
-        <v>2.042810365310288e-14</v>
+        <v>2.464695114667848e-14</v>
       </c>
       <c r="P13" t="n">
         <v>-2.717053105807389</v>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[41.55667895965422, 54.86585129873916]</t>
+          <t>[41.55875251324448, 54.8637777451489]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[55.045386459209865, 75.85596276865168]</t>
+          <t>[54.99347926695471, 75.90786996090684]</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[41.55625355381809, 54.86670304501221]</t>
+          <t>[41.55657926601459, 54.86637733281571]</t>
         </is>
       </c>
       <c r="V14" t="n">
